--- a/Webapp/flask_app/static/data_files/UnemploymentRate_Cleaned.xlsx
+++ b/Webapp/flask_app/static/data_files/UnemploymentRate_Cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishk\Documents\UniMelb\Sem 1 2021\COMP90024 Cluster and Cloud Computing\Assignments\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\Documents\COMP90024\COMP90024-ClusterAndCloudComputing-Assignment2\Webapp\flask_app\static\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24EB86-CCDA-4FEC-95A3-DB15DC964A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444DEC8-FD34-4BCC-AC3B-D57F13C85C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnemploymentRate" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>Northern Territory - Outback</t>
   </si>
   <si>
-    <t>Unemployment Rate</t>
-  </si>
-  <si>
     <t>Adelaide</t>
   </si>
   <si>
@@ -348,7 +345,10 @@
     <t>Perth (WA)</t>
   </si>
   <si>
-    <t xml:space="preserve"> sa4 name</t>
+    <t>sa4_name</t>
+  </si>
+  <si>
+    <t>unemp_rate</t>
   </si>
 </sst>
 </file>
@@ -1193,27 +1193,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>8.1999999999999904</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1257,19 +1259,19 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1">
         <f xml:space="preserve"> AVERAGE(C2:C5)</f>
         <v>6.849999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1346,19 +1348,19 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1">
         <f xml:space="preserve"> AVERAGE(C10:C13)</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1380,7 +1382,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1468,7 +1470,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1578,7 +1580,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>81</v>
       </c>
@@ -1600,7 +1602,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1611,7 +1613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1622,7 +1624,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,7 +1646,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>9.6999999999999904</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1688,19 +1690,19 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1">
         <f xml:space="preserve"> AVERAGE(C37:C44)</f>
         <v>6.9499999999999984</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>81</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -1854,19 +1856,19 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1">
         <f xml:space="preserve"> AVERAGE(C55:C59)</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -1954,7 +1956,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -2119,19 +2121,19 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2">
         <f xml:space="preserve"> AVERAGE(C70:C83)</f>
         <v>6.0214285714285705</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>55</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>55</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
@@ -2164,7 +2166,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>55</v>
       </c>
